--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H2">
         <v>1.8681</v>
       </c>
       <c r="I2">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J2">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.048574</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N2">
-        <v>0.145722</v>
+        <v>0.416813</v>
       </c>
       <c r="O2">
-        <v>0.005173961045635648</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P2">
-        <v>0.005173961045635648</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q2">
-        <v>0.0302470298</v>
+        <v>0.08651648503333331</v>
       </c>
       <c r="R2">
-        <v>0.2722232682</v>
+        <v>0.7786483652999999</v>
       </c>
       <c r="S2">
-        <v>0.002940250494358116</v>
+        <v>0.01517792117679557</v>
       </c>
       <c r="T2">
-        <v>0.002940250494358116</v>
+        <v>0.01517792117679557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H3">
         <v>1.8681</v>
       </c>
       <c r="I3">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J3">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>12.660118</v>
       </c>
       <c r="O3">
-        <v>0.4495063021722917</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P3">
-        <v>0.4495063021722917</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q3">
-        <v>2.627818492866667</v>
+        <v>2.627818492866666</v>
       </c>
       <c r="R3">
         <v>23.6503664358</v>
       </c>
       <c r="S3">
-        <v>0.2554447386676829</v>
+        <v>0.4610083492907629</v>
       </c>
       <c r="T3">
-        <v>0.2554447386676829</v>
+        <v>0.461008349290763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,51 +661,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H4">
         <v>1.8681</v>
       </c>
       <c r="I4">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J4">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01908533333333333</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N4">
-        <v>0.05725599999999999</v>
+        <v>11.124632</v>
       </c>
       <c r="O4">
-        <v>0.002032914135332446</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P4">
-        <v>0.002032914135332446</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q4">
-        <v>0.01188443706666667</v>
+        <v>2.309102782133333</v>
       </c>
       <c r="R4">
-        <v>0.1069599336</v>
+        <v>20.7819250392</v>
       </c>
       <c r="S4">
-        <v>0.001155261266692526</v>
+        <v>0.4050948209793304</v>
       </c>
       <c r="T4">
-        <v>0.001155261266692526</v>
+        <v>0.4050948209793305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.04989433333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.149683</v>
+      </c>
+      <c r="I5">
+        <v>0.07061334918422178</v>
+      </c>
+      <c r="J5">
+        <v>0.07061334918422178</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.6227</v>
-      </c>
-      <c r="H5">
-        <v>1.8681</v>
-      </c>
-      <c r="I5">
-        <v>0.5682784366608796</v>
-      </c>
-      <c r="J5">
-        <v>0.5682784366608797</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>5.100466333333333</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N5">
-        <v>15.301399</v>
+        <v>0.416813</v>
       </c>
       <c r="O5">
-        <v>0.5432868226467401</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P5">
-        <v>0.5432868226467401</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q5">
-        <v>3.176060385766667</v>
+        <v>0.006932202253222222</v>
       </c>
       <c r="R5">
-        <v>28.5845434719</v>
+        <v>0.062389820279</v>
       </c>
       <c r="S5">
-        <v>0.3087381862321461</v>
+        <v>0.001216143019916649</v>
       </c>
       <c r="T5">
-        <v>0.3087381862321461</v>
+        <v>0.001216143019916649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H6">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I6">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J6">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.048574</v>
+        <v>4.220039333333333</v>
       </c>
       <c r="N6">
-        <v>0.145722</v>
+        <v>12.660118</v>
       </c>
       <c r="O6">
-        <v>0.005173961045635648</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P6">
-        <v>0.005173961045635648</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q6">
-        <v>0.02132762905</v>
+        <v>0.2105560491771111</v>
       </c>
       <c r="R6">
-        <v>0.19194866145</v>
+        <v>1.895004442594</v>
       </c>
       <c r="S6">
-        <v>0.002073214205572973</v>
+        <v>0.03693866107108253</v>
       </c>
       <c r="T6">
-        <v>0.002073214205572973</v>
+        <v>0.03693866107108253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H7">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I7">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J7">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.220039333333333</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N7">
-        <v>12.660118</v>
+        <v>11.124632</v>
       </c>
       <c r="O7">
-        <v>0.4495063021722917</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P7">
-        <v>0.4495063021722917</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q7">
-        <v>1.852913770283334</v>
+        <v>0.1850186990728889</v>
       </c>
       <c r="R7">
-        <v>16.67622393255</v>
+        <v>1.665168291656</v>
       </c>
       <c r="S7">
-        <v>0.1801178715762211</v>
+        <v>0.03245854509322259</v>
       </c>
       <c r="T7">
-        <v>0.1801178715762211</v>
+        <v>0.03245854509322259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -903,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03399066666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.101972</v>
+      </c>
+      <c r="I8">
+        <v>0.04810555936888933</v>
+      </c>
+      <c r="J8">
+        <v>0.04810555936888933</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.439075</v>
-      </c>
-      <c r="H8">
-        <v>1.317225</v>
-      </c>
-      <c r="I8">
-        <v>0.4007015490234074</v>
-      </c>
-      <c r="J8">
-        <v>0.4007015490234074</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.01908533333333333</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N8">
-        <v>0.05725599999999999</v>
+        <v>0.416813</v>
       </c>
       <c r="O8">
-        <v>0.002032914135332446</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P8">
-        <v>0.002032914135332446</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q8">
-        <v>0.008379892733333333</v>
+        <v>0.00472258391511111</v>
       </c>
       <c r="R8">
-        <v>0.0754190346</v>
+        <v>0.04250325523599999</v>
       </c>
       <c r="S8">
-        <v>0.0008145918430592919</v>
+        <v>0.000828501139253893</v>
       </c>
       <c r="T8">
-        <v>0.0008145918430592918</v>
+        <v>0.0008285011392538933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.439075</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H9">
-        <v>1.317225</v>
+        <v>0.101972</v>
       </c>
       <c r="I9">
-        <v>0.4007015490234074</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J9">
-        <v>0.4007015490234074</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.100466333333333</v>
+        <v>4.220039333333333</v>
       </c>
       <c r="N9">
-        <v>15.301399</v>
+        <v>12.660118</v>
       </c>
       <c r="O9">
-        <v>0.5432868226467401</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P9">
-        <v>0.5432868226467401</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q9">
-        <v>2.239487255308334</v>
+        <v>0.1434419502995555</v>
       </c>
       <c r="R9">
-        <v>20.155385297775</v>
+        <v>1.290977552696</v>
       </c>
       <c r="S9">
-        <v>0.217695871398554</v>
+        <v>0.02516457544771569</v>
       </c>
       <c r="T9">
-        <v>0.217695871398554</v>
+        <v>0.02516457544771569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,232 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03399066666666667</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H10">
         <v>0.101972</v>
       </c>
       <c r="I10">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J10">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.048574</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N10">
-        <v>0.145722</v>
+        <v>11.124632</v>
       </c>
       <c r="O10">
-        <v>0.005173961045635648</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P10">
-        <v>0.005173961045635648</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q10">
-        <v>0.001651062642666667</v>
+        <v>0.1260445527004444</v>
       </c>
       <c r="R10">
-        <v>0.014859563784</v>
+        <v>1.134400974304</v>
       </c>
       <c r="S10">
-        <v>0.0001604963457045586</v>
+        <v>0.02211248278191974</v>
       </c>
       <c r="T10">
-        <v>0.0001604963457045586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03399066666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.101972</v>
-      </c>
-      <c r="I11">
-        <v>0.03102001431571287</v>
-      </c>
-      <c r="J11">
-        <v>0.03102001431571288</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.220039333333333</v>
-      </c>
-      <c r="N11">
-        <v>12.660118</v>
-      </c>
-      <c r="O11">
-        <v>0.4495063021722917</v>
-      </c>
-      <c r="P11">
-        <v>0.4495063021722917</v>
-      </c>
-      <c r="Q11">
-        <v>0.1434419502995556</v>
-      </c>
-      <c r="R11">
-        <v>1.290977552696</v>
-      </c>
-      <c r="S11">
-        <v>0.01394369192838765</v>
-      </c>
-      <c r="T11">
-        <v>0.01394369192838765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03399066666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.101972</v>
-      </c>
-      <c r="I12">
-        <v>0.03102001431571287</v>
-      </c>
-      <c r="J12">
-        <v>0.03102001431571288</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.01908533333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.05725599999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.002032914135332446</v>
-      </c>
-      <c r="P12">
-        <v>0.002032914135332446</v>
-      </c>
-      <c r="Q12">
-        <v>0.0006487232035555556</v>
-      </c>
-      <c r="R12">
-        <v>0.005838508832</v>
-      </c>
-      <c r="S12">
-        <v>6.306102558062754E-05</v>
-      </c>
-      <c r="T12">
-        <v>6.306102558062754E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03399066666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.101972</v>
-      </c>
-      <c r="I13">
-        <v>0.03102001431571287</v>
-      </c>
-      <c r="J13">
-        <v>0.03102001431571288</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.100466333333333</v>
-      </c>
-      <c r="N13">
-        <v>15.301399</v>
-      </c>
-      <c r="O13">
-        <v>0.5432868226467401</v>
-      </c>
-      <c r="P13">
-        <v>0.5432868226467401</v>
-      </c>
-      <c r="Q13">
-        <v>0.1733682509808889</v>
-      </c>
-      <c r="R13">
-        <v>1.560314258828</v>
-      </c>
-      <c r="S13">
-        <v>0.01685276501604004</v>
-      </c>
-      <c r="T13">
-        <v>0.01685276501604004</v>
+        <v>0.02211248278191975</v>
       </c>
     </row>
   </sheetData>
